--- a/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,67%</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,71%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,28%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 2,44</t>
+          <t>-14,25; -2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,12</t>
+          <t>-1,74; 10,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,62</t>
+          <t>-3,49; 8,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,61</t>
+          <t>-13,54; -0,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 13,42</t>
+          <t>-7,45; 3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 50,27</t>
+          <t>-10,85; -0,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 62,18</t>
+          <t>-19,42; -3,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 5,46</t>
+          <t>-2,89; 17,62</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 13,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,37; -1,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 4,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,5; -1,05</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-3,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 9,65</t>
+          <t>-0,09; 14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 3,96</t>
+          <t>-8,41; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,68</t>
+          <t>-8,21; 4,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 11,79</t>
+          <t>-2,86; 11,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 61,07</t>
+          <t>-8,02; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 24,37</t>
+          <t>-11,31; 6,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 40,03</t>
+          <t>-0,12; 25,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 18,93</t>
+          <t>-12,18; 8,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-11,75; 7,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 19,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 19,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,63; 9,09</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>14,78%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 11,24</t>
+          <t>-15,32; 13,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 12,56</t>
+          <t>-12,74; 11,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 8,21</t>
+          <t>-19,36; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-20,03; 6,9</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-40,66; 114,81</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 183,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,62; 69,69</t>
+          <t>-21,42; 26,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,16; 21,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-25,26; 6,97</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-23,9; 9,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>-2,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,65</t>
+          <t>-5,45; 2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,07</t>
+          <t>-2,95; 5,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,72</t>
+          <t>-4,28; 3,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 3,17</t>
+          <t>-7,62; 1,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 20,44</t>
+          <t>-6,0; 2,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 27,27</t>
+          <t>-9,74; -0,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 40,9</t>
+          <t>-8,12; 4,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 4,87</t>
+          <t>-4,6; 8,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 5,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 2,86</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 4,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; -1,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AF_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,18%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-9,71%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-3,22%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-8,28%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.095311838424358</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.225106140337309</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.087969551490587</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.801289958550749</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.22391557080045</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-6.097088398918327</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1278901697482559</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.07027865503654918</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.0326890279399636</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.09594482825457287</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.03222687231028214</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.08393915011634089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; -2,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 10,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 8,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; -0,81</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 3,14</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,85; -0,66</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; -3,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 17,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 13,83</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-18,37; -1,15</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 4,74</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-14,5; -1,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.8887350207955</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.87849155924936</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.868472802066167</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.68563824771455</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-7.448440250954742</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-10.77757413298812</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2034131289367592</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.02973912095772365</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.05781611518398398</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1837336241471823</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1036735669081035</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1452677547240312</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-3.286394289116723</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.898960657178486</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.042311976084745</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.5957539468258382</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.144276738048864</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.707917403287916</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.04740354127560086</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1749768743942358</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1338551811834612</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.006852027814724947</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.04735416809041257</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.01167584150729692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-2,79%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-2,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-3,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 14,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; 5,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 4,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 11,07</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; 12,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; 6,14</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 25,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,18; 8,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 7,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 19,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; 19,7</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-14,63; 9,09</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.808032278499587</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.366128980260262</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.148632376138382</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.411034894968112</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.340166603933646</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.312105883833782</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.09605402267912508</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.02093022574860342</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.03260397568559186</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.05487269938834737</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.01990796772774238</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.03163881534931223</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,81</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,03%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,25%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-10,72%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.154897611287179</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.873165753454418</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.717579244244099</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.663189644579589</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-8.01745881480683</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-10.84849262736883</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01770119449088554</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1130837814688945</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1254394133349009</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03925478193103132</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.109366306678897</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1443350793519581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 13,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 11,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 4,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,03; 6,9</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 26,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,16; 21,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-25,26; 6,97</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 9,84</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.60939638539136</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.852907487534745</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.759760472209111</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.28424308211173</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.29627212584222</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.518624208000838</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2411564768107446</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.09919550756360319</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.0593817180633323</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1991791996658498</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1970477854535659</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.09555335132766246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,33</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-4,18%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-7,33%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.638099894115363</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.09441041500175551</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.244774864602265</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-5.991083330602032</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.02745593129993642</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.001565225864726376</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.08968347574623897</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.07782485558981279</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,45; 2,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 5,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 3,7</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 1,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 2,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; -0,76</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 4,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 8,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 5,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 2,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 4,29</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; -1,07</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.9217161138335</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.78395540655225</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.43540424809294</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.99681343939764</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2015316958267294</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1776424616926208</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2407472034452502</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.227186569278861</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.5601083328193</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.32095933606438</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.966345256013765</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.870520284337003</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3294868068751625</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2318147523093129</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.09642410608368743</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1146367241480031</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.96264035554925</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.486890388346263</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.5455090958659592</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.621772908053455</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.410616561857503</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-5.282038564304569</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.02993578291791534</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02389573161498407</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.008344439008406422</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.03852240472451183</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.02056513766208772</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.07260805318574083</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.621154305987704</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.821650391434976</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.638036662894004</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.479225999336046</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.000874114253139</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-9.636649091945806</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.09650990595876353</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.04396257591998062</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06732910864834905</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.106607306483841</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.08504831915197029</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1280768139270107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.307229444755857</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.4891982079857</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.37021693710696</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.218391804025876</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.834336703104566</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.760356757791487</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.03614466273586939</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.09105641984253622</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05305264089434992</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03343715240935428</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.04290777150346018</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.01139642457571866</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
